--- a/fabrika/Urunler/Sablonlar/fabrika_urun_sablon.xlsx
+++ b/fabrika/Urunler/Sablonlar/fabrika_urun_sablon.xlsx
@@ -53,44 +53,230 @@
     <t>Birim</t>
   </si>
   <si>
-    <t>Proje danışmanlık</t>
-  </si>
-  <si>
-    <t>Hizmet</t>
+    <t>Natürel Sızma Zeytinyağı 250 ml Pet</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Natürel Sızma</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
+    <t>TL</t>
+  </si>
+  <si>
     <t>adet</t>
   </si>
   <si>
-    <t>LED Televizyon</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>TV001</t>
-  </si>
-  <si>
-    <t>8690123456789</t>
-  </si>
-  <si>
-    <t>Örnek</t>
-  </si>
-  <si>
-    <t>Ev Elektroniği</t>
-  </si>
-  <si>
-    <t>H</t>
+    <t>Natürel Sızma Zeytinyağı 500 ml Pet</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Zeytinyağı 750 ml Pet</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Zeytinyağı 1 litre Pet</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Zeytinyağı 2 litre Pet</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Zeytinyağı 250 ml Cam</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Zeytinyağı 500 ml Cam</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Zeytinyağı 750 ml Cam</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Zeytinyağı 1 litre Cam</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Zeytinyağı 1 litre Cam Galon</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Zeytinyağı 500 ml Cam Galon</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Zeytinyağı 3 litre Teneke</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Zeytinyağı 5 litre Teneke</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Zeytinyağı 10 litre Teneke</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Zeytinyağı 18 litre Teneke</t>
+  </si>
+  <si>
+    <t>Natürel Birinci Zeytinyağı 250 ml Pet</t>
+  </si>
+  <si>
+    <t>Natürel Birinci</t>
+  </si>
+  <si>
+    <t>Natürel Birinci Zeytinyağı 500 ml Pet</t>
+  </si>
+  <si>
+    <t>Natürel Birinci Zeytinyağı 750 ml Pet</t>
+  </si>
+  <si>
+    <t>Natürel Birinci Zeytinyağı 1 litre Pet</t>
+  </si>
+  <si>
+    <t>Natürel Birinci Zeytinyağı 2 litre Pet</t>
+  </si>
+  <si>
+    <t>Natürel Birinci Zeytinyağı 250 ml Cam</t>
+  </si>
+  <si>
+    <t>Natürel Birinci Zeytinyağı 500 ml Cam</t>
+  </si>
+  <si>
+    <t>Natürel Birinci Zeytinyağı 750 ml Cam</t>
+  </si>
+  <si>
+    <t>Natürel Birinci Zeytinyağı 1 litre Cam</t>
+  </si>
+  <si>
+    <t>Natürel Birinci Zeytinyağı 1 litre Cam Galon</t>
+  </si>
+  <si>
+    <t>Natürel Birinci Zeytinyağı 500 ml Cam Galon</t>
+  </si>
+  <si>
+    <t>Natürel Birinci Zeytinyağı 3 litre Teneke</t>
+  </si>
+  <si>
+    <t>Natürel Birinci Zeytinyağı 5 litre Teneke</t>
+  </si>
+  <si>
+    <t>Natürel Birinci Zeytinyağı 10 litre Teneke</t>
+  </si>
+  <si>
+    <t>Natürel Birinci Zeytinyağı 18 litre Teneke</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Erken Hasat Soğuk Sıkım Zeytinyağı 250 ml Pet</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Erken Hasat</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Erken Hasat Soğuk Sıkım Zeytinyağı 500 ml Pet</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Erken Hasat Soğuk Sıkım Zeytinyağı 750 ml Pet</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Erken Hasat Soğuk Sıkım Zeytinyağı 1 litre Pet</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Erken Hasat Soğuk Sıkım Zeytinyağı 2 litre Pet</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Erken Hasat Soğuk Sıkım Zeytinyağı 250 ml Cam</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Erken Hasat Soğuk Sıkım Zeytinyağı 500 ml Cam</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Erken Hasat Soğuk Sıkım Zeytinyağı 750 ml Cam</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Erken Hasat Soğuk Sıkım Zeytinyağı 1 litre Cam</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Erken Hasat Soğuk Sıkım Zeytinyağı 1 litre Cam Galon</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Erken Hasat Soğuk Sıkım Zeytinyağı 500 ml Cam Galon</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Erken Hasat Soğuk Sıkım Zeytinyağı 3 litre Teneke</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Erken Hasat Soğuk Sıkım Zeytinyağı 5 litre Teneke</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Erken Hasat Soğuk Sıkım Zeytinyağı 10 litre Teneke</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Erken Hasat Soğuk Sıkım Zeytinyağı 18 litre Teneke</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Erken Hasat Soğuk Sıkım Zeytinyağı 3,5 Litre Pet</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Taş Baskı Soğuk Sıkım Zeytinyağı 250 ml Pet</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Taş Baskı</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Taş Baskı Soğuk Sıkım Zeytinyağı 500 ml Pet</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Taş Baskı Soğuk Sıkım Zeytinyağı 750 ml Pet</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Taş Baskı Soğuk Sıkım Zeytinyağı 1 litre Pet</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Taş Baskı Soğuk Sıkım Zeytinyağı 2 litre Pet</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Taş Baskı Soğuk Sıkım Zeytinyağı 250 ml Cam</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Taş Baskı Soğuk Sıkım Zeytinyağı 500 ml Cam</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Taş Baskı Soğuk Sıkım Zeytinyağı 750 ml Cam</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Taş Baskı Soğuk Sıkım Zeytinyağı 1 litre Cam</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Taş Baskı Soğuk Sıkım Zeytinyağı 1 litre Cam Galon</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Taş Baskı Soğuk Sıkım Zeytinyağı 500 ml Cam Galon</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Taş Baskı Soğuk Sıkım Zeytinyağı 3 litre Teneke</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Taş Baskı Soğuk Sıkım Zeytinyağı 5 litre Teneke</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Taş Baskı Soğuk Sıkım Zeytinyağı 10 litre Teneke</t>
+  </si>
+  <si>
+    <t>Natürel Sızma Taş Baskı Soğuk Sıkım Zeytinyağı 18 litre Teneke</t>
+  </si>
+  <si>
+    <t>Çizik Yeşil Zeytin</t>
+  </si>
+  <si>
+    <t>Çizik Yeşi Zeytin</t>
+  </si>
+  <si>
+    <t>Kırma Yeşil Zeytin</t>
+  </si>
+  <si>
+    <t>Siyah Yağlı Sele</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,26 +293,55 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left>
+        <color indexed="64"/>
+      </left>
+      <right>
+        <color indexed="64"/>
+      </right>
+      <top>
+        <color indexed="64"/>
+      </top>
+      <bottom>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal>
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,12 +612,12 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.43" customWidth="1"/>
+    <col min="1" max="1" width="59.71" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.43" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.43" customWidth="1"/>
     <col min="4" max="4" width="12.86" customWidth="1"/>
@@ -459,61 +674,1469 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2">
-        <v>15.99</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H3">
-        <v>890.46000000000004</v>
-      </c>
-      <c r="I3">
-        <v>1100</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L3">
-        <v>12</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>50</v>
+      </c>
+      <c r="J39" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>50</v>
+      </c>
+      <c r="J40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s">
+        <v>50</v>
+      </c>
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>50</v>
+      </c>
+      <c r="J42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>50</v>
+      </c>
+      <c r="J43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>50</v>
+      </c>
+      <c r="J44" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" t="s">
+        <v>17</v>
+      </c>
+      <c r="M44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>50</v>
+      </c>
+      <c r="J45" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" t="s">
+        <v>17</v>
+      </c>
+      <c r="M45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
+        <v>50</v>
+      </c>
+      <c r="J46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" t="s">
+        <v>17</v>
+      </c>
+      <c r="M46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>50</v>
+      </c>
+      <c r="J47" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>67</v>
+      </c>
+      <c r="J48" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" t="s">
+        <v>17</v>
+      </c>
+      <c r="M48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>67</v>
+      </c>
+      <c r="J49" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" t="s">
+        <v>17</v>
+      </c>
+      <c r="M49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>67</v>
+      </c>
+      <c r="J50" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>67</v>
+      </c>
+      <c r="J51" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" t="s">
+        <v>17</v>
+      </c>
+      <c r="M51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>67</v>
+      </c>
+      <c r="J52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
+        <v>67</v>
+      </c>
+      <c r="J53" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J54" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" t="s">
+        <v>17</v>
+      </c>
+      <c r="M54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>67</v>
+      </c>
+      <c r="J55" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" t="s">
+        <v>17</v>
+      </c>
+      <c r="M55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
+        <v>67</v>
+      </c>
+      <c r="J56" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" t="s">
+        <v>17</v>
+      </c>
+      <c r="M56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
+        <v>67</v>
+      </c>
+      <c r="J57" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" t="s">
+        <v>17</v>
+      </c>
+      <c r="M57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s">
+        <v>67</v>
+      </c>
+      <c r="J58" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s">
+        <v>67</v>
+      </c>
+      <c r="J59" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" t="s">
+        <v>17</v>
+      </c>
+      <c r="M59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
+        <v>67</v>
+      </c>
+      <c r="J60" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" t="s">
+        <v>17</v>
+      </c>
+      <c r="M60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>67</v>
+      </c>
+      <c r="J61" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" t="s">
+        <v>17</v>
+      </c>
+      <c r="M61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>67</v>
+      </c>
+      <c r="J62" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" t="s">
+        <v>17</v>
+      </c>
+      <c r="M62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
+        <v>83</v>
+      </c>
+      <c r="J63" t="s">
+        <v>16</v>
+      </c>
+      <c r="K63" t="s">
+        <v>17</v>
+      </c>
+      <c r="M63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s">
+        <v>84</v>
+      </c>
+      <c r="J64" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s">
+        <v>85</v>
+      </c>
+      <c r="J65" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
